--- a/data/trans_orig/P14C13-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C13-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2410F7A-9A72-447F-A990-4CA00BB53665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24B1E1A3-6C2F-49E3-A06B-091B4062C62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4024DDE3-8649-4A17-BB81-385D2F6E61A1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{90836890-F878-4FA8-B472-836096B4C2C4}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="248">
   <si>
     <t>Población según el tiempo de diagnóstico del dolor de espalda en 2015 (Tasa respuesta: 10,43%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>68,58%</t>
   </si>
   <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
   </si>
   <si>
     <t>62,67%</t>
   </si>
   <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
   </si>
   <si>
     <t>64,66%</t>
   </si>
   <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,28 +104,28 @@
     <t>24,56%</t>
   </si>
   <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
   </si>
   <si>
     <t>29,93%</t>
   </si>
   <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
   </si>
   <si>
     <t>28,12%</t>
   </si>
   <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -137,25 +137,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>22,4%</t>
+    <t>24,03%</t>
   </si>
   <si>
     <t>7,4%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
   </si>
   <si>
     <t>7,22%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,619 +167,616 @@
     <t>51,59%</t>
   </si>
   <si>
-    <t>31,12%</t>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
   </si>
   <si>
     <t>74,36%</t>
   </si>
   <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
   </si>
   <si>
     <t>68,49%</t>
   </si>
   <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
+    <t>76,74%</t>
   </si>
   <si>
     <t>71,41%</t>
   </si>
   <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
   </si>
   <si>
     <t>21,68%</t>
   </si>
   <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
   </si>
   <si>
     <t>21,63%</t>
   </si>
   <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
   </si>
   <si>
     <t>21,65%</t>
   </si>
   <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
   </si>
   <si>
     <t>9,16%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
   </si>
   <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
   </si>
   <si>
     <t>6,94%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1194,7 +1191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC0193-9A46-46D0-93AE-0592A90CE4F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43918B4C-69CF-4F44-AA3A-DD870830B890}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2074,7 +2071,7 @@
         <v>117</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2130,7 +2127,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2142,13 +2139,13 @@
         <v>16359</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -2157,13 +2154,13 @@
         <v>29133</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M20" s="7">
         <v>44</v>
@@ -2172,13 +2169,13 @@
         <v>45492</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,13 +2190,13 @@
         <v>989</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -2208,13 +2205,13 @@
         <v>1736</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -2223,13 +2220,13 @@
         <v>2725</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,13 +2241,13 @@
         <v>1879</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2262,10 +2259,10 @@
         <v>32</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -2274,13 +2271,13 @@
         <v>1879</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,7 +2333,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2348,13 +2345,13 @@
         <v>13998</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H24" s="7">
         <v>15</v>
@@ -2363,13 +2360,13 @@
         <v>17567</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M24" s="7">
         <v>29</v>
@@ -2378,13 +2375,13 @@
         <v>31564</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2396,13 @@
         <v>9182</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -2414,13 +2411,13 @@
         <v>11689</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -2429,13 +2426,13 @@
         <v>20870</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2450,13 +2447,13 @@
         <v>1035</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2465,13 +2462,13 @@
         <v>2198</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2480,13 +2477,13 @@
         <v>3233</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,7 +2539,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2554,13 +2551,13 @@
         <v>34158</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H28" s="7">
         <v>70</v>
@@ -2569,13 +2566,13 @@
         <v>77857</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M28" s="7">
         <v>101</v>
@@ -2584,13 +2581,13 @@
         <v>112015</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2605,13 +2602,13 @@
         <v>12394</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H29" s="7">
         <v>15</v>
@@ -2620,13 +2617,13 @@
         <v>16353</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
@@ -2635,13 +2632,13 @@
         <v>28747</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2656,13 +2653,13 @@
         <v>11248</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -2671,13 +2668,13 @@
         <v>10551</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M30" s="7">
         <v>20</v>
@@ -2686,13 +2683,13 @@
         <v>21798</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2748,7 +2745,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2760,13 +2757,13 @@
         <v>52305</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H32" s="7">
         <v>63</v>
@@ -2775,13 +2772,13 @@
         <v>73232</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M32" s="7">
         <v>113</v>
@@ -2790,13 +2787,13 @@
         <v>125537</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2811,13 +2808,13 @@
         <v>12369</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H33" s="7">
         <v>20</v>
@@ -2826,13 +2823,13 @@
         <v>24069</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M33" s="7">
         <v>30</v>
@@ -2841,13 +2838,13 @@
         <v>36438</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,13 +2859,13 @@
         <v>1945</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -2877,13 +2874,13 @@
         <v>5137</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M34" s="7">
         <v>6</v>
@@ -2892,13 +2889,13 @@
         <v>7081</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P34" s="7" t="s">
-        <v>220</v>
-      </c>
       <c r="Q34" s="7" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,13 +2963,13 @@
         <v>187033</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="H36" s="7">
         <v>309</v>
@@ -2981,13 +2978,13 @@
         <v>347383</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M36" s="7">
         <v>489</v>
@@ -2996,13 +2993,13 @@
         <v>534416</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,13 +3014,13 @@
         <v>58640</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H37" s="7">
         <v>95</v>
@@ -3032,13 +3029,13 @@
         <v>103384</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M37" s="7">
         <v>148</v>
@@ -3047,13 +3044,13 @@
         <v>162025</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,13 +3065,13 @@
         <v>24768</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H38" s="7">
         <v>25</v>
@@ -3083,13 +3080,13 @@
         <v>27197</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M38" s="7">
         <v>48</v>
@@ -3098,13 +3095,13 @@
         <v>51965</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,7 +3157,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C13-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C13-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24B1E1A3-6C2F-49E3-A06B-091B4062C62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{572A7165-659F-405C-8AA8-A402627A993F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{90836890-F878-4FA8-B472-836096B4C2C4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C6910268-749B-4051-8B88-C8C8839F1199}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="248">
-  <si>
-    <t>Población según el tiempo de diagnóstico del dolor de espalda en 2015 (Tasa respuesta: 10,43%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="249">
+  <si>
+    <t>Población según el tiempo de diagnóstico del dolor de espalda en 2016 (Tasa respuesta: 10,43%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>68,58%</t>
   </si>
   <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
   </si>
   <si>
     <t>62,67%</t>
   </si>
   <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
   </si>
   <si>
     <t>64,66%</t>
   </si>
   <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,16 +104,16 @@
     <t>24,56%</t>
   </si>
   <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
   </si>
   <si>
     <t>29,93%</t>
   </si>
   <si>
-    <t>18,67%</t>
+    <t>19,51%</t>
   </si>
   <si>
     <t>43,62%</t>
@@ -122,10 +122,10 @@
     <t>28,12%</t>
   </si>
   <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -137,7 +137,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>24,03%</t>
+    <t>22,04%</t>
   </si>
   <si>
     <t>7,4%</t>
@@ -146,16 +146,16 @@
     <t>1,74%</t>
   </si>
   <si>
-    <t>17,37%</t>
+    <t>17,02%</t>
   </si>
   <si>
     <t>7,22%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,79 +167,79 @@
     <t>51,59%</t>
   </si>
   <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
   </si>
   <si>
     <t>56,32%</t>
   </si>
   <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
   </si>
   <si>
     <t>54,44%</t>
   </si>
   <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
   </si>
   <si>
     <t>37,7%</t>
   </si>
   <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
   </si>
   <si>
     <t>33,94%</t>
   </si>
   <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
   </si>
   <si>
     <t>35,43%</t>
   </si>
   <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>32,19%</t>
+    <t>31,11%</t>
   </si>
   <si>
     <t>9,74%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
   </si>
   <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -248,76 +248,76 @@
     <t>63,6%</t>
   </si>
   <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
   </si>
   <si>
     <t>70,53%</t>
   </si>
   <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
   </si>
   <si>
     <t>68,32%</t>
   </si>
   <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
   </si>
   <si>
     <t>28,67%</t>
   </si>
   <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
   </si>
   <si>
     <t>27,36%</t>
   </si>
   <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
   </si>
   <si>
     <t>27,78%</t>
   </si>
   <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>24,38%</t>
+    <t>23,78%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>10,73%</t>
+    <t>10,54%</t>
   </si>
   <si>
     <t>3,9%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -326,457 +326,460 @@
     <t>84,09%</t>
   </si>
   <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
   </si>
   <si>
     <t>86,82%</t>
   </si>
   <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
   </si>
   <si>
     <t>86,02%</t>
   </si>
   <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>21,95%</t>
+    <t>21,06%</t>
   </si>
   <si>
     <t>11,75%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
   </si>
   <si>
     <t>8,9%</t>
   </si>
   <si>
-    <t>29,64%</t>
+    <t>27,25%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
     <t>6,94%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1191,7 +1194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43918B4C-69CF-4F44-AA3A-DD870830B890}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC3FC73-C812-48CE-B8DD-CF5B36C6FF97}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1495,7 +1498,7 @@
         <v>77</v>
       </c>
       <c r="N7" s="7">
-        <v>84399</v>
+        <v>84400</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -2071,7 +2074,7 @@
         <v>117</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2127,7 +2130,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2139,13 +2142,13 @@
         <v>16359</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -2154,13 +2157,13 @@
         <v>29133</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M20" s="7">
         <v>44</v>
@@ -2169,13 +2172,13 @@
         <v>45492</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2190,7 +2193,7 @@
         <v>989</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>32</v>
@@ -2399,10 +2402,10 @@
         <v>151</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -2411,13 +2414,13 @@
         <v>11689</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -2426,13 +2429,13 @@
         <v>20870</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,13 +2450,13 @@
         <v>1035</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2462,13 +2465,13 @@
         <v>2198</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2477,13 +2480,13 @@
         <v>3233</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,7 +2542,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2551,13 +2554,13 @@
         <v>34158</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H28" s="7">
         <v>70</v>
@@ -2566,13 +2569,13 @@
         <v>77857</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M28" s="7">
         <v>101</v>
@@ -2581,13 +2584,13 @@
         <v>112015</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,13 +2605,13 @@
         <v>12394</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H29" s="7">
         <v>15</v>
@@ -2617,13 +2620,13 @@
         <v>16353</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
@@ -2632,13 +2635,13 @@
         <v>28747</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,13 +2656,13 @@
         <v>11248</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -2668,13 +2671,13 @@
         <v>10551</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M30" s="7">
         <v>20</v>
@@ -2683,13 +2686,13 @@
         <v>21798</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,7 +2748,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2757,13 +2760,13 @@
         <v>52305</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H32" s="7">
         <v>63</v>
@@ -2772,13 +2775,13 @@
         <v>73232</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M32" s="7">
         <v>113</v>
@@ -2787,13 +2790,13 @@
         <v>125537</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,13 +2811,13 @@
         <v>12369</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H33" s="7">
         <v>20</v>
@@ -2823,13 +2826,13 @@
         <v>24069</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M33" s="7">
         <v>30</v>
@@ -2838,13 +2841,13 @@
         <v>36438</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,13 +2862,13 @@
         <v>1945</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -2874,13 +2877,13 @@
         <v>5137</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M34" s="7">
         <v>6</v>
@@ -2889,13 +2892,13 @@
         <v>7081</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,13 +2966,13 @@
         <v>187033</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H36" s="7">
         <v>309</v>
@@ -2978,13 +2981,13 @@
         <v>347383</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M36" s="7">
         <v>489</v>
@@ -2993,13 +2996,13 @@
         <v>534416</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,13 +3017,13 @@
         <v>58640</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H37" s="7">
         <v>95</v>
@@ -3029,13 +3032,13 @@
         <v>103384</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M37" s="7">
         <v>148</v>
@@ -3044,13 +3047,13 @@
         <v>162025</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,13 +3068,13 @@
         <v>24768</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H38" s="7">
         <v>25</v>
@@ -3080,13 +3083,13 @@
         <v>27197</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>241</v>
+        <v>107</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M38" s="7">
         <v>48</v>
@@ -3095,13 +3098,13 @@
         <v>51965</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,7 +3160,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
